--- a/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.27</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.599</v>
+        <v>19.591</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.165</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.207</v>
+        <v>20.152</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.995</v>
+        <v>16.369</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>30.06129812353356</v>
+        <v>18.2719282010134</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.56423176540297</v>
+        <v>23.38702328792812</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25.35766721075362</v>
+        <v>27.15946648126516</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>21.96243787873896</v>
+        <v>16.67644707823007</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>30.32831776346072</v>
+        <v>22.66595321310212</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>30.60365657274637</v>
+        <v>27.91429810792039</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>30.11115761965362</v>
+        <v>33.03013676305324</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>30.22788571292446</v>
+        <v>36.80301447009634</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.47144214645095</v>
+        <v>26.31933561572129</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>32.60650018006133</v>
+        <v>32.31103216794389</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30.0848573348552</v>
+        <v>31.18226769566713</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>27.54691231888401</v>
+        <v>36.29826725463789</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>27.32600469743882</v>
+        <v>40.07131704946067</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.98808210571523</v>
+        <v>29.58738561527725</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>32.32430179828746</v>
+        <v>35.58027761369391</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>30.0862806635888</v>
+        <v>24.76191214758348</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.55469155136315</v>
+        <v>29.87718495758071</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>26.38701766759683</v>
+        <v>33.6499256688266</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>24.12534934571337</v>
+        <v>23.16644089677385</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>32.09157554297756</v>
+        <v>29.15816231517562</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>30.65194098090882</v>
+        <v>27.78904453446188</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>30.36708604408678</v>
+        <v>31.56312929497421</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>31.49593314599182</v>
+        <v>21.07925273641621</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>30.09533204863368</v>
+        <v>31.76677051151689</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.46419215265457</v>
+        <v>36.89362762797833</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.10385860966877</v>
+        <v>40.66889154779807</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.78847839830629</v>
+        <v>30.18263044583154</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>44.44068604574433</v>
+        <v>37.43486709931182</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>45.84592665759497</v>
+        <v>41.20938644192876</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>52.54789520642825</v>
+        <v>30.72485035387871</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>33.03366521612574</v>
+        <v>41.41426281365051</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>48.52024644176762</v>
+        <v>46.54186354762084</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>50.12865088933341</v>
+        <v>50.31756208176631</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>59.46620795985904</v>
+        <v>39.83064137063451</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>42.55464147756761</v>
+        <v>40.70427336794882</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>43.56495958569752</v>
+        <v>44.47896482018081</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>49.84845285008655</v>
+        <v>33.99417613399743</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>32.81843715738898</v>
+        <v>44.68499316649837</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>46.42433595605621</v>
+        <v>49.81275471355485</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>47.85251651415931</v>
+        <v>53.58862537258602</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>55.87587574857595</v>
+        <v>43.1014520145232</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>39.5152011041142</v>
+        <v>34.28143122301293</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>40.46156803830787</v>
+        <v>38.05581354460122</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>44.75035754299201</v>
+        <v>27.57147157924095</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>32.78283507038044</v>
+        <v>38.26151360701311</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>46.73488896352598</v>
+        <v>43.38854831042823</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>48.15521568136641</v>
+        <v>47.16410982093163</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>56.78037329722962</v>
+        <v>36.67738321775488</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>31.19454498634406</v>
+        <v>23.69534099689026</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>34.23010121718725</v>
+        <v>28.81004928969327</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>34.71239232879607</v>
+        <v>32.58289303490977</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>37.35249837711464</v>
+        <v>22.09891467325514</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>30.74570529516535</v>
+        <v>28.08061021598252</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>32.12023603517167</v>
+        <v>33.33717049064666</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>40.6268052078711</v>
+        <v>38.45262233685941</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>41.76402104114038</v>
+        <v>42.22590058741804</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>46.45452908019578</v>
+        <v>31.74126279655735</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>32.42521291313052</v>
+        <v>37.7251485081826</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31.32075636181498</v>
+        <v>36.60478482535251</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>36.92398778525212</v>
+        <v>41.72039758613556</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>37.48616907970205</v>
+        <v>45.49384791522363</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>41.89248323567764</v>
+        <v>35.00895757097481</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.07634595062277</v>
+        <v>40.99403862291189</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>31.7338713372843</v>
+        <v>30.18472082744262</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>38.79352251620747</v>
+        <v>35.29960686720375</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>39.63345001432644</v>
+        <v>39.07274811650001</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>44.40348906787698</v>
+        <v>28.58830443074811</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>32.35220356633439</v>
+        <v>34.57221502595718</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>32.94700585737392</v>
+        <v>33.20331512341824</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>33.01843872480458</v>
+        <v>36.9778003578827</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>34.70376826979303</v>
+        <v>26.49296524626567</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>31.03981981933783</v>
+        <v>37.18433682320216</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>35.51525198928692</v>
+        <v>42.31080727142495</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>35.76842651737272</v>
+        <v>46.08647164659857</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>40.28532981784116</v>
+        <v>35.5992519269775</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>44.08997940305748</v>
+        <v>42.84859701052818</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>45.35716358291145</v>
+        <v>46.62351681864828</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>52.81621792317662</v>
+        <v>36.1380221992867</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>32.86752459719204</v>
+        <v>46.83128843014646</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>47.93265709998276</v>
+        <v>51.95850248072719</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>49.46457994758792</v>
+        <v>55.73460146192764</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>58.98955692613082</v>
+        <v>45.24672215495713</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>42.27312798429994</v>
+        <v>46.11764795903611</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>43.28592360828625</v>
+        <v>49.89273986767608</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>50.14279167934595</v>
+        <v>39.4069926768305</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>32.66857415383355</v>
+        <v>50.101663428427</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>46.82760301739175</v>
+        <v>55.22903830293757</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>48.22597816810924</v>
+        <v>59.00530939963431</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>57.33381572829857</v>
+        <v>48.51717747264416</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>41.58811978652093</v>
+        <v>39.69509754320273</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>42.78082973300431</v>
+        <v>43.46988032493363</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>48.07136830308387</v>
+        <v>32.98457985121917</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>32.8531815356633</v>
+        <v>43.67847558826651</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>47.39297492287255</v>
+        <v>48.80512364684381</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>48.83747599682079</v>
+        <v>52.58108559888336</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>58.02124861969163</v>
+        <v>42.09340042286459</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>30.68130368109935</v>
+        <v>23.36694934226415</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.30067669120192</v>
+        <v>28.48166844697375</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.56333228497051</v>
+        <v>32.25444424195638</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28.93517759695567</v>
+        <v>21.77059684139971</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>30.87981912274895</v>
+        <v>27.75661141713812</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>31.96790096078722</v>
+        <v>33.00890589045997</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>40.87856484922614</v>
+        <v>38.12436854451022</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>41.88379591636747</v>
+        <v>41.89757884549323</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>47.4199207275573</v>
+        <v>31.41307201212902</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>32.36173047577122</v>
+        <v>37.40127674341903</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>30.90639960895142</v>
+        <v>36.27657782328941</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>35.91064393141745</v>
+        <v>41.39220138916249</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>36.17206121501376</v>
+        <v>45.16558377066127</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.21343476657493</v>
+        <v>34.68082437774802</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>32.22392171442367</v>
+        <v>40.67022442768615</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>31.50135864233381</v>
+        <v>29.85640835450119</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>38.93764832948958</v>
+        <v>34.97130520177535</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>39.58932491365175</v>
+        <v>38.7443785040262</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>45.40811308751496</v>
+        <v>28.26006576869628</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>32.21217607631404</v>
+        <v>34.24829537907061</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>33.33443737631947</v>
+        <v>32.87932694771717</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>33.48885182856701</v>
+        <v>36.65374429518562</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>35.30631472614884</v>
+        <v>26.16903996748801</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>31.09852162371119</v>
+        <v>36.8601286311968</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>35.52187062511071</v>
+        <v>41.98660969747419</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.81119524803876</v>
+        <v>45.76220617680127</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>40.06161189923156</v>
+        <v>35.27511725933942</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>44.00541625651146</v>
+        <v>42.52473586500986</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>45.22197763632753</v>
+        <v>46.29958778703002</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>52.93732261394743</v>
+        <v>35.81422394755663</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>32.76695124977833</v>
+        <v>46.50720727594756</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>46.85110527033224</v>
+        <v>51.63443194097346</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>48.30867329449703</v>
+        <v>55.41046302713727</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>57.00531343249256</v>
+        <v>44.92271451811968</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>43.19150591144533</v>
+        <v>45.79384438041205</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>44.29329998866412</v>
+        <v>49.56886840481656</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>51.46964682809758</v>
+        <v>39.08325198762196</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>32.59786965623751</v>
+        <v>49.77763985076291</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>46.51090867316535</v>
+        <v>54.90502533702255</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>47.84887057205833</v>
+        <v>58.68122854046914</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>56.92720318711169</v>
+        <v>48.19322740530555</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>41.31006726852505</v>
+        <v>39.37118851534552</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>42.50404897814276</v>
+        <v>43.14590341337481</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>47.95916334676635</v>
+        <v>32.6607337127694</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>32.80658276561839</v>
+        <v>43.35434656447438</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>47.30015905852427</v>
+        <v>48.48100523699935</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>48.80205065217456</v>
+        <v>52.25689929641152</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>57.71892976313329</v>
+        <v>41.76934491160767</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>32.02480487706188</v>
+        <v>17.04366441036911</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>34.85446940201773</v>
+        <v>22.15876614465111</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>36.03888145589097</v>
+        <v>25.93108587521653</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>33.46533927417259</v>
+        <v>15.44847418088699</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>30.03263292581738</v>
+        <v>21.43580980335532</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>32.18447011295969</v>
+        <v>26.6858629125133</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>38.12903437178839</v>
+        <v>31.80170820892141</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>39.36781008669719</v>
+        <v>35.57446244609997</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>39.77722365900938</v>
+        <v>25.09119131139784</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>32.47749720745183</v>
+        <v>31.08071726189525</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>32.04638683922808</v>
+        <v>29.95380410021852</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>36.94663758323525</v>
+        <v>35.06981030108051</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>38.13042853429156</v>
+        <v>38.84273662457059</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>37.85371955968591</v>
+        <v>28.35921291137646</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.99649575740036</v>
+        <v>34.34993427475598</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32.15151054926124</v>
+        <v>23.53358228481483</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>36.53333785260398</v>
+        <v>28.64886174441159</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>37.82079953265799</v>
+        <v>32.42147899046682</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>36.72324842839549</v>
+        <v>21.93840193171917</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>31.62271061083449</v>
+        <v>27.92795277367901</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>27.57048043382122</v>
+        <v>26.55890758457821</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>27.19247454474473</v>
+        <v>30.33286882162196</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>25.83309779767738</v>
+        <v>19.849400005512</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>30.48686574189945</v>
+        <v>30.53726429485954</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>28.99915138836339</v>
+        <v>35.66412778268551</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.02784895896018</v>
+        <v>39.43926816737377</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>27.56368801857852</v>
+        <v>28.95341480889494</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>44.64915815272489</v>
+        <v>36.20455864676745</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>45.87402534343407</v>
+        <v>39.97895445904663</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>53.79645298397409</v>
+        <v>29.49482612420053</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>32.81589505004531</v>
+        <v>40.18458507454403</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>47.97345453588203</v>
+        <v>45.31219217386109</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>49.42038884346906</v>
+        <v>49.08776716583128</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>59.18619253200087</v>
+        <v>38.60125420880701</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>41.17815242672381</v>
+        <v>39.4739364831135</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>42.06748635621334</v>
+        <v>43.2485044036344</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>48.50739982486025</v>
+        <v>32.76412347226614</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>32.61261986370098</v>
+        <v>43.45528696206264</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>46.29646007407537</v>
+        <v>48.58305487525848</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>47.52435315772159</v>
+        <v>52.35880199059778</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>56.72590906872456</v>
+        <v>41.87203638812372</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>35.99669063494837</v>
+        <v>33.05122814312091</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>36.76096069289926</v>
+        <v>36.82548693909968</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>39.12651704572656</v>
+        <v>26.34155272069831</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>32.50312758142558</v>
+        <v>37.03194120146298</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>43.62127407152905</v>
+        <v>42.15898227856241</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>44.80790557719948</v>
+        <v>45.93442025167832</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>51.44929090160277</v>
+        <v>35.44810139605687</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>30.29757742999106</v>
+        <v>24.17950142613012</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>26.43531944233472</v>
+        <v>29.2944250348474</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>26.54333997425985</v>
+        <v>33.06709413264394</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>24.44372989494175</v>
+        <v>22.58344177222085</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>31.04863509903225</v>
+        <v>28.57381406286055</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.37940747690626</v>
+        <v>33.82186743021526</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>29.12195697057162</v>
+        <v>38.93753459534724</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.33716550884547</v>
+        <v>42.71063820497449</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>33.36995607834756</v>
+        <v>32.2263263895116</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>32.63847958545543</v>
+        <v>38.21888901097253</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.43416273750064</v>
+        <v>37.08990206893844</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>30.98239790659944</v>
+        <v>42.20573013591019</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>30.13358446800732</v>
+        <v>45.97900583377185</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>36.96620654521659</v>
+        <v>35.49444143531554</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>31.65428800692116</v>
+        <v>41.48819947132739</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.34243835543147</v>
+        <v>30.66962203913119</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>30.94372521619505</v>
+        <v>35.78472336865906</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>30.0336706146754</v>
+        <v>39.55768998590878</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>37.40230114587626</v>
+        <v>29.07357224928848</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>32.57915256215541</v>
+        <v>35.06615977386497</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>34.28293875484613</v>
+        <v>33.69673395329568</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>34.57904371215056</v>
+        <v>37.47104461862676</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>36.49529787540673</v>
+        <v>26.98653519212957</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>31.33992259410451</v>
+        <v>37.67301943445597</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>35.90437002207982</v>
+        <v>42.79970509088167</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>36.31891348551767</v>
+        <v>46.57519487586711</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>39.71496213601398</v>
+        <v>36.0883009870401</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>46.24871613852643</v>
+        <v>43.34255249925315</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>47.57502406199744</v>
+        <v>47.11729774494353</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>56.51162950361716</v>
+        <v>36.63212878490884</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>32.84743000430986</v>
+        <v>47.32050769551091</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>47.54332165728526</v>
+        <v>52.44793695753566</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>49.07432146825248</v>
+        <v>56.22386135497078</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>58.08272330140623</v>
+        <v>45.73630785288191</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>41.92074625509279</v>
+        <v>46.61202378041588</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>42.76103934506166</v>
+        <v>50.38694113613241</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>50.99188103945383</v>
+        <v>39.90151957506856</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>32.6619032461576</v>
+        <v>50.59130303572789</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>46.16726746355769</v>
+        <v>55.7188931089907</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>47.57257499997956</v>
+        <v>59.49498963143225</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>56.04303584460487</v>
+        <v>49.00718347961771</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>43.31539260722825</v>
+        <v>40.18925724800823</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>44.78110088107228</v>
+        <v>43.96386547612241</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>50.64922073204201</v>
+        <v>33.47889063565066</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>32.81351146479745</v>
+        <v>44.16789907883555</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>47.3111007468453</v>
+        <v>49.29476231982204</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>48.84901013363823</v>
+        <v>53.07054969704274</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>57.80596642441273</v>
+        <v>42.58319029970863</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>30.18221590986196</v>
+        <v>26.34346625490167</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>26.11144791187594</v>
+        <v>31.45754995256567</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>26.18694540971088</v>
+        <v>35.23023556601566</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>24.62948319917709</v>
+        <v>24.74656213760585</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>31.28498419740045</v>
+        <v>30.73942899810828</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.3448642546691</v>
+        <v>35.98455063153762</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>27.86561950960842</v>
+        <v>41.09937780481715</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>27.10715223296753</v>
+        <v>44.8724978838373</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>30.89300400386017</v>
+        <v>34.38816507484427</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>32.60340904042555</v>
+        <v>40.38322199322164</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>29.2629050681691</v>
+        <v>39.25201281425615</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>30.63656660139155</v>
+        <v>44.36700088096524</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.64260064090399</v>
+        <v>48.14029302560704</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>36.73478204863169</v>
+        <v>37.65570767544347</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>32.45682928119593</v>
+        <v>43.65195984057578</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.27687421483289</v>
+        <v>32.83251575980677</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>30.41428771723831</v>
+        <v>37.94677717444875</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.51339410412986</v>
+        <v>41.7197602700565</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>36.68411533691983</v>
+        <v>31.23562153767586</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>32.78122971571065</v>
+        <v>37.23070331964146</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>36.07223720704526</v>
+        <v>35.86150852149029</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>36.54925402883055</v>
+        <v>39.63583562730008</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>39.8000574898543</v>
+        <v>29.15130524586397</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>31.1625466331613</v>
+        <v>39.83766122148364</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>35.96927466381025</v>
+        <v>44.96350601703381</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>36.30487881315494</v>
+        <v>48.73901209077786</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>40.69991794829678</v>
+        <v>38.25209750500284</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>45.66411026887835</v>
+        <v>45.5060450339235</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>47.04768812315638</v>
+        <v>49.28080667354305</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>55.32765264967732</v>
+        <v>38.79561683312505</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>32.8145630788792</v>
+        <v>49.48386726577002</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>46.83591605322586</v>
+        <v>54.6104555863464</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>48.36472485739567</v>
+        <v>58.38639622630279</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>56.81654572690201</v>
+        <v>47.89882210180218</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>45.00366680581504</v>
+        <v>48.774943693598</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>46.2901160118348</v>
+        <v>52.54987742078509</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>54.47053159490312</v>
+        <v>42.06443502122846</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>32.82009910195162</v>
+        <v>52.75408984889549</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>47.69727851757413</v>
+        <v>57.88083897245161</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>49.1910860631272</v>
+        <v>61.65695171511089</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>58.43530302977494</v>
+        <v>51.16912498242874</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>44.93896690228383</v>
+        <v>42.35296042317651</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>46.48487803937159</v>
+        <v>46.12758505427092</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>53.38668638870651</v>
+        <v>35.64258933130037</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>32.8587265357937</v>
+        <v>46.33146923301246</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>47.26915417063957</v>
+        <v>51.45749160946895</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>48.75489603021146</v>
+        <v>55.23329523839953</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>57.66624293630292</v>
+        <v>44.74591521638962</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>30.12619588006403</v>
+        <v>15.04144435370933</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>25.79462518723181</v>
+        <v>20.15582122908319</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>25.63559555045768</v>
+        <v>23.92785051623816</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>22.32357293268231</v>
+        <v>13.44590122221684</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>30.64298300180873</v>
+        <v>19.43855951719963</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>30.37271179554009</v>
+        <v>24.68243679595691</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.61075385396007</v>
+        <v>29.79755716595838</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.52435951599493</v>
+        <v>33.5700209176876</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>28.88386722313956</v>
+        <v>23.08741225637079</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>31.52552546610197</v>
+        <v>29.08226076753153</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.66140020230125</v>
+        <v>27.94975427593926</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>26.17067918401144</v>
+        <v>33.06503553972226</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>25.59652552404399</v>
+        <v>36.83767135560703</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>24.45351227557996</v>
+        <v>26.35481015848569</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>31.71680475807362</v>
+        <v>32.35085393363994</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.72121371477533</v>
+        <v>21.5301854334378</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>24.99853549308937</v>
+        <v>26.64474002404433</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>24.54265025759453</v>
+        <v>30.41706678832299</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>21.94709664003882</v>
+        <v>19.93465220459172</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>31.49235775440172</v>
+        <v>25.92952544377687</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>30.65978772467617</v>
+        <v>24.56093179267981</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>30.73065414201177</v>
+        <v>28.33460256903317</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>30.48079504754633</v>
+        <v>17.85179605389925</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>30.52994677963157</v>
+        <v>28.54042708737171</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>31.2733250168319</v>
+        <v>33.66656465832767</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>31.1782096663211</v>
+        <v>37.44141448804777</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>32.21648771948275</v>
+        <v>26.95622359912062</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>37.56221923602613</v>
+        <v>34.20537657922176</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>38.29052872728138</v>
+        <v>37.9794818887928</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>41.93424791144434</v>
+        <v>27.49601592785195</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>32.62482147381829</v>
+        <v>38.18654145470401</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>44.65063726510168</v>
+        <v>43.31342256977831</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>46.02933849017171</v>
+        <v>47.08870696461844</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>52.6737813154911</v>
+        <v>36.60285655044896</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>38.28078040468316</v>
+        <v>37.47413055824353</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>39.06217718515163</v>
+        <v>41.24840795374502</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>43.20799712194793</v>
+        <v>30.76468943886602</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>32.79918345372744</v>
+        <v>41.45661943796262</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>45.7072897952942</v>
+        <v>46.58366135633315</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>47.14504175097677</v>
+        <v>50.35911785228183</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>54.55656121167569</v>
+        <v>39.8730148353132</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>35.1376161213441</v>
+        <v>31.05207529766568</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>35.86567549127481</v>
+        <v>34.82604359454973</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>37.5679708826612</v>
+        <v>24.34277175176391</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>32.76228662638003</v>
+        <v>35.03392687875493</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>45.99025861840494</v>
+        <v>40.16024202870273</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>47.38252230574039</v>
+        <v>43.93538940850073</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>55.20670896866528</v>
+        <v>33.44973309745404</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>29.94899414947861</v>
+        <v>10.65071867842829</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>24.44800871301204</v>
+        <v>15.76581990581673</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>24.21134375185898</v>
+        <v>19.53821500142141</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>19.67816170985642</v>
+        <v>9.055242900506361</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>29.82029992948218</v>
+        <v>15.04181632785373</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>30.01573676713094</v>
+        <v>20.29280841123449</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>25.73450476654154</v>
+        <v>25.4086531985866</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>25.55021851757495</v>
+        <v>29.18148280192719</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>22.25331887262458</v>
+        <v>18.69785125776054</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.97687715417264</v>
+        <v>24.6866149635269</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>30.15263405104887</v>
+        <v>23.56074512645836</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>25.66653788475137</v>
+        <v>28.67675081922033</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>25.60240240172097</v>
+        <v>32.44975250873784</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>21.55670388530199</v>
+        <v>21.96586838633033</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>29.9361464893141</v>
+        <v>27.95582749635838</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.84010348478625</v>
+        <v>17.14061370405051</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>23.26362252483951</v>
+        <v>22.25589265982643</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>23.004428596461</v>
+        <v>26.02858527106827</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>17.77516264919549</v>
+        <v>15.54514780549284</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>29.82444812665176</v>
+        <v>21.53393643182398</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>26.67638186656656</v>
+        <v>20.16491386172737</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>26.16106660078925</v>
+        <v>23.93895047119185</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>24.4469497591257</v>
+        <v>13.45512137254292</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.65679037520984</v>
+        <v>24.14266965884082</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>26.35490109061927</v>
+        <v>29.26953290641365</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>25.70537706795906</v>
+        <v>33.04474865400613</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>24.26894044121668</v>
+        <v>22.55853501684254</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>29.16294607670894</v>
+        <v>29.81045609880454</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>28.81237427535908</v>
+        <v>33.58492728439256</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.73858677535134</v>
+        <v>23.10043866423434</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>31.10853285953219</v>
+        <v>33.78988162063769</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>37.30720282363815</v>
+        <v>38.91748847775165</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>37.63709082242912</v>
+        <v>42.69313883334138</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>43.31030682188546</v>
+        <v>32.20626559499777</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>27.62295515057982</v>
+        <v>33.07982945606051</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>27.27454645138934</v>
+        <v>36.85447274979475</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>27.38916323512018</v>
+        <v>26.36973153315393</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>30.32204712893741</v>
+        <v>37.06057903795596</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>33.00026204053732</v>
+        <v>42.18834670997904</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>32.66965862992155</v>
+        <v>45.96416918882215</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>37.9174992261782</v>
+        <v>35.47704330549203</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>24.15189421319941</v>
+        <v>26.65721155696275</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>23.84112684609282</v>
+        <v>30.43154572537475</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>19.9030484989967</v>
+        <v>19.94725122438382</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>31.08245795561039</v>
+        <v>30.63732371590351</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>35.83798737184136</v>
+        <v>35.76436455610195</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>35.88426536241501</v>
+        <v>39.53987789183833</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>40.87855766862206</v>
+        <v>29.05319875767811</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>32.29858511425652</v>
+        <v>27.31347463536048</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>35.60018997718355</v>
+        <v>32.42806366407473</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>36.74952344525547</v>
+        <v>36.20094737103324</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>36.17031516647786</v>
+        <v>25.71704391654561</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>30.81588377234952</v>
+        <v>31.69924053011477</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>32.32681707921016</v>
+        <v>36.95505840233255</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>42.45583038538494</v>
+        <v>42.07039095204954</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>43.68526244585964</v>
+        <v>45.84370914791424</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>49.51906329986332</v>
+        <v>35.35914628613472</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>31.82150623848802</v>
+        <v>41.34353297543254</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>31.89789215862621</v>
+        <v>40.22260073916328</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>41.18561991762418</v>
+        <v>45.33809419053995</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>41.93124799707576</v>
+        <v>49.11158445809286</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>48.65966480735281</v>
+        <v>38.62676904763833</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>31.85221522504653</v>
+        <v>44.61235107602289</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>31.88108341413403</v>
+        <v>33.8026851087829</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>40.01221037938328</v>
+        <v>38.91745186382246</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>40.64498724815459</v>
+        <v>42.6906330637824</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>46.24562816860957</v>
+        <v>32.20626429216242</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>31.66786754574295</v>
+        <v>38.19067596022006</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>32.28863026683162</v>
+        <v>36.82182593416684</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>32.46126360951641</v>
+        <v>40.59635110755045</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>33.39248757974256</v>
+        <v>30.11159088754806</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>31.13608247838074</v>
+        <v>40.8005110261193</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>34.79151620219265</v>
+        <v>45.92686184346957</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>35.13784911410086</v>
+        <v>49.70256606569109</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>38.37861044117825</v>
+        <v>39.21542146681549</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>39.37533963281435</v>
+        <v>46.4668619420226</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>40.32003678849058</v>
+        <v>50.24182167260363</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>44.79461998383874</v>
+        <v>39.75640196716023</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>32.52093521106367</v>
+        <v>50.44721664105924</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>44.56855436669225</v>
+        <v>55.5743110287745</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>45.88580217889163</v>
+        <v>59.35044984039774</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>53.18037037589907</v>
+        <v>48.86264567634174</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>39.58831817334542</v>
+        <v>49.73584086322802</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>40.51988767142403</v>
+        <v>53.5109726875184</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>45.33854279427642</v>
+        <v>43.02530041523056</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>32.84574992789666</v>
+        <v>53.71751955714632</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>46.67734401953311</v>
+        <v>58.84477475606712</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>48.16960521066629</v>
+        <v>62.62108567622403</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>56.39843934646105</v>
+        <v>52.13302889657558</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>36.47404553636404</v>
+        <v>43.31343895311187</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>37.3651086645945</v>
+        <v>47.08826166291209</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>39.54137360809928</v>
+        <v>36.60303608812336</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>32.79406164638297</v>
+        <v>47.29448029719111</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>46.14509613612223</v>
+        <v>52.42100870437235</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>47.60932581873296</v>
+        <v>56.19701049239285</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>55.41067091148818</v>
+        <v>45.70940044417699</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.90677612467913</v>
+        <v>9.267218188111375</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>23.9458001038676</v>
+        <v>14.38149612420677</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>23.66484490601958</v>
+        <v>18.15330018656579</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>19.07811360243211</v>
+        <v>7.67170925524994</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.80020006438131</v>
+        <v>13.65859709345574</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>30.16982759755367</v>
+        <v>18.90828630544633</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>27.10279827982593</v>
+        <v>24.02330772836587</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>26.94722505933249</v>
+        <v>27.79554625557904</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>24.62795111184356</v>
+        <v>17.31329595463848</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>31.27275346630334</v>
+        <v>23.30237397433172</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>30.03627547201251</v>
+        <v>22.17557402268671</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>26.2385110325221</v>
+        <v>27.29075634235466</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>26.00821060930301</v>
+        <v>31.0631669317782</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>23.34480616999501</v>
+        <v>20.58066409948418</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>30.98480817226331</v>
+        <v>26.57093732335062</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>29.98099749306312</v>
+        <v>15.75588573093154</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>24.89584476675762</v>
+        <v>20.87034139129497</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>24.68282410802387</v>
+        <v>24.64244292641212</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>20.76847802175661</v>
+        <v>14.1603867157167</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>30.65049275235165</v>
+        <v>20.14948936258878</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25.15625386153383</v>
+        <v>18.78087050999233</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>24.70283040836361</v>
+        <v>22.55431595203862</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>21.69911156271147</v>
+        <v>12.07186804558131</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>30.01726132970298</v>
+        <v>22.76329359641563</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>25.90232972648024</v>
+        <v>27.88933227761271</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>25.65429113752634</v>
+        <v>31.66395679439637</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>22.62706699053685</v>
+        <v>21.17912444209236</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>35.64173025429339</v>
+        <v>28.42539091863904</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>36.19490221143295</v>
+        <v>32.19927089402807</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>38.87840247379202</v>
+        <v>21.71616353993756</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>32.2660102201046</v>
+        <v>32.40948361801696</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>43.48729986728864</v>
+        <v>37.53626583512897</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>44.52133945312374</v>
+        <v>41.31132491744057</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>51.52833016046876</v>
+        <v>30.82583303748908</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>32.79868038307945</v>
+        <v>31.69411508380603</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>33.06423456689625</v>
+        <v>35.4681671431162</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>34.58758033087972</v>
+        <v>24.98480723930487</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>31.89967895481338</v>
+        <v>35.67953178568058</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>41.16442304519082</v>
+        <v>40.80647480953149</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>41.81019362786499</v>
+        <v>44.5817059908648</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>48.70084118311948</v>
+        <v>34.09596151258648</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>27.7914535439384</v>
+        <v>25.27194036607017</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>27.96498810347775</v>
+        <v>29.04568332415448</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>25.26722407380624</v>
+        <v>18.56277010079436</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>31.68545723811478</v>
+        <v>29.25671973760126</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>38.87609090435812</v>
+        <v>34.38293600688229</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>39.41586973643628</v>
+        <v>38.15785806945195</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>44.69077598809222</v>
+        <v>27.67256030569041</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.62380384570714</v>
+        <v>18.5642311235203</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>21.51593759873384</v>
+        <v>23.6787321365685</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>21.12350381037248</v>
+        <v>27.45124524571594</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>14.73988321231613</v>
+        <v>16.96800160294487</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>30.85961875138342</v>
+        <v>22.95922493187237</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.63212010295745</v>
+        <v>28.20572421545552</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>22.50955319990459</v>
+        <v>33.32096874269672</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>22.06562082542709</v>
+        <v>37.09391633793319</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>16.77268901742551</v>
+        <v>26.6100132891109</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>31.71998820831882</v>
+        <v>32.60342673755309</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>29.51761601729241</v>
+        <v>31.47331066647331</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>24.05996478039518</v>
+        <v>36.58871609891099</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>23.44591535935424</v>
+        <v>40.36183576875356</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>20.61772205168467</v>
+        <v>29.87768016810248</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>31.81116342705389</v>
+        <v>35.8722888588631</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>30.09293103326119</v>
+        <v>25.05350402419407</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>25.15562182406634</v>
+        <v>30.16818277283204</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>24.89883038986414</v>
+        <v>33.94099337889628</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>20.96765190060771</v>
+        <v>23.45728441609703</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>31.60089703329364</v>
+        <v>29.45072265711594</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>31.67791901672807</v>
+        <v>28.0817218769252</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>31.93303194264508</v>
+        <v>31.85587652787553</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>32.3047919829905</v>
+        <v>21.37177583131433</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>30.72506096189455</v>
+        <v>32.06184670948261</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>32.67708929407933</v>
+        <v>37.18810904870173</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>32.7217364427569</v>
+        <v>40.96344278310011</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>35.08150451639647</v>
+        <v>30.47695758713093</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>38.6063963128457</v>
+        <v>37.72666723822994</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>39.45697880900335</v>
+        <v>41.50125644366352</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>43.53983595425486</v>
+        <v>31.0164962629795</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>32.47918573502671</v>
+        <v>41.7084617439362</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>45.07294916936341</v>
+        <v>46.83546764646877</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>46.38760795254544</v>
+        <v>50.61123596770773</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>54.19802455379545</v>
+        <v>40.12409120758281</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>39.03141025683387</v>
+        <v>40.99569018366918</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>39.93014320530862</v>
+        <v>44.77045148553265</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>44.41746310007856</v>
+        <v>34.28543873486529</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>32.61832689250625</v>
+        <v>44.97880869614124</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>45.74931423370618</v>
+        <v>50.10597541339126</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>47.14746520571984</v>
+        <v>53.88191584605653</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>55.41856718758197</v>
+        <v>43.39451846726723</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>36.68146333566838</v>
+        <v>34.5733972007252</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>37.51097832744113</v>
+        <v>38.34784939161165</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>40.09330132268312</v>
+        <v>27.8632833376102</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>32.59003500165925</v>
+        <v>38.55587830015457</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>46.3896409473285</v>
+        <v>43.6823182385603</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>47.75593446161052</v>
+        <v>47.45794954283264</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>56.61624244943509</v>
+        <v>36.97099889462532</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>30.0050274004518</v>
+        <v>9.141049307107725</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>25.2666923312604</v>
+        <v>14.25549192106672</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>25.02149383877743</v>
+        <v>18.02751621787792</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>21.48585417945252</v>
+        <v>7.54536744442095</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>29.68672603295919</v>
+        <v>13.52740366909217</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>30.43339839418723</v>
+        <v>18.78233119777753</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>28.62026435930152</v>
+        <v>23.89751734201895</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>28.64878471068542</v>
+        <v>27.6699761198899</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>26.89621860794288</v>
+        <v>17.18716795505833</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>30.89593820793192</v>
+        <v>23.17139424096996</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>30.18405212089323</v>
+        <v>22.04978709482436</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>28.05636837269081</v>
+        <v>27.16513414613832</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>27.87703405910604</v>
+        <v>30.93776499669815</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>26.92752951398723</v>
+        <v>20.45470428361699</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>30.53925504941758</v>
+        <v>26.44012582265549</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>30.08869082962351</v>
+        <v>15.63004922293834</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>26.34307853802909</v>
+        <v>20.74466957423573</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>26.17582033348483</v>
+        <v>24.51699136264046</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>23.59111931937141</v>
+        <v>14.03437727981651</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>30.21510952805399</v>
+        <v>20.01862840310634</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>23.84407311842947</v>
+        <v>18.64984233158674</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>23.36558730769865</v>
+        <v>22.42350804265579</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>19.29495980843428</v>
+        <v>11.94050247496017</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>30.51038512451644</v>
+        <v>22.6348804909822</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>28.62651691841875</v>
+        <v>27.76108447159703</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>28.70753211884108</v>
+        <v>31.53592932977989</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>27.06254574121779</v>
+        <v>21.0505390741327</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>32.00263054672792</v>
+        <v>28.29457647508736</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>32.28354179265488</v>
+        <v>32.06867673591643</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>32.67546521610127</v>
+        <v>21.58501169794653</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>31.61803894730212</v>
+        <v>32.28128436799904</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>38.65252878926105</v>
+        <v>37.40823192811678</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>39.31422652548554</v>
+        <v>41.18351136812709</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>44.21135915376649</v>
+        <v>30.69746156238211</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.21558117989124</v>
+        <v>31.56346888305251</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.24256983733879</v>
+        <v>35.33774123826987</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>28.37012220146483</v>
+        <v>24.85382363391108</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>31.2063537305041</v>
+        <v>35.55150079799904</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>37.58931071948621</v>
+        <v>40.67860917476759</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>37.96291220804558</v>
+        <v>44.45406072438931</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>43.34839572214477</v>
+        <v>33.96775830369194</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>25.61984176714468</v>
+        <v>25.14124466578443</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>25.53477933486111</v>
+        <v>28.91520791182012</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>21.98415978980627</v>
+        <v>18.43173699663607</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>31.22635476973053</v>
+        <v>29.12863913894268</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>35.93212802029456</v>
+        <v>34.25502072036915</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>36.40010179981945</v>
+        <v>38.03016314327755</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>39.65253861590977</v>
+        <v>27.54430744552434</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.62380348903879</v>
+        <v>2.867826351966588</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>21.51606790169512</v>
+        <v>7.982056546699202</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>21.12358439523733</v>
+        <v>11.75376688801731</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>14.74022370861197</v>
+        <v>1.272442723510213</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.61869009538632</v>
+        <v>7.255420783609171</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.75138123868987</v>
+        <v>12.50854613989333</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>23.23411692308568</v>
+        <v>17.62351983896309</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>22.8757933023391</v>
+        <v>21.39566464164722</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>18.02717557446343</v>
+        <v>10.91368111718879</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.74316797578648</v>
+        <v>16.89884912847589</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.82737300586069</v>
+        <v>15.7758730749693</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>23.93247091064991</v>
+        <v>20.89100767870872</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>23.62639421897142</v>
+        <v>24.66332454826119</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>19.30753972401432</v>
+        <v>14.18108848577294</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.71336239138583</v>
+        <v>20.16745169113591</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.86553941304251</v>
+        <v>9.356565139264436</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>23.17877803590331</v>
+        <v>14.47097306970153</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>22.89658192124876</v>
+        <v>18.24298089240591</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>17.49410000770953</v>
+        <v>7.761191438422149</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.67395240106984</v>
+        <v>13.7463843008074</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>21.66164457692593</v>
+        <v>12.37764663465515</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>21.25868688905658</v>
+        <v>16.15099833130381</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>15.07441562674792</v>
+        <v>5.668817343545303</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>30.27617749222019</v>
+        <v>16.36279997248284</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>25.99820318169528</v>
+        <v>21.48879094680359</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>25.98654577518241</v>
+        <v>25.26332174741373</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>22.32829525023791</v>
+        <v>14.7787561479434</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>22.93543046398245</v>
+        <v>22.02181852545465</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>22.57873286617482</v>
+        <v>25.79560475212003</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>17.3967546445727</v>
+        <v>15.3127643259125</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>30.75082801623369</v>
+        <v>26.00864152993069</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>32.3657516842967</v>
+        <v>31.13537605781909</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>32.48152144041309</v>
+        <v>34.91034142062318</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>33.61770591264438</v>
+        <v>24.4251163030778</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>22.2275509971303</v>
+        <v>25.29058191143651</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>21.88742622489517</v>
+        <v>29.06454022699365</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>16.09693546588395</v>
+        <v>18.58144724486937</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>30.75298016763287</v>
+        <v>29.278728871581</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>31.99482041168145</v>
+        <v>34.40562421341264</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>32.18181451215133</v>
+        <v>38.18076168003535</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>32.97804974412816</v>
+        <v>27.69528395793788</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>21.71581926547985</v>
+        <v>18.86878775044005</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>21.35389893521415</v>
+        <v>22.64243697208775</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>15.08238854791369</v>
+        <v>12.15979065726123</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>30.90965972844228</v>
+        <v>22.8562972839855</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>31.46410320142774</v>
+        <v>27.98246585757483</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>31.75913853754098</v>
+        <v>31.75729421268119</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>31.39408055216505</v>
+        <v>21.27226319156688</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>30.55446775670022</v>
+        <v>18.29807651331697</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.34855448146082</v>
+        <v>23.41321460972523</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.49468925291629</v>
+        <v>27.18563358772582</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>26.48277588683043</v>
+        <v>16.7026962086573</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.88189088024214</v>
+        <v>22.68675221975269</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>31.87281715171857</v>
+        <v>27.94045673995419</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>39.36801105504856</v>
+        <v>33.05633840562388</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>40.28103921952926</v>
+        <v>36.82919189635169</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>44.17941784470843</v>
+        <v>26.34559506801981</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>31.22234115600332</v>
+        <v>32.3318413754867</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>32.1533247797061</v>
+        <v>31.20842950851483</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>40.90783462952352</v>
+        <v>36.32447207728518</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>42.01555466358317</v>
+        <v>40.09749765506484</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>46.70035535276621</v>
+        <v>29.61364824656943</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>31.6479624489036</v>
+        <v>35.60108998879974</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>32.19766964972302</v>
+        <v>24.78804242593123</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>37.06696374104874</v>
+        <v>29.90335824611674</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>38.09139231594274</v>
+        <v>33.67607474052846</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>38.73170809653685</v>
+        <v>23.19267199327982</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>31.46997535937941</v>
+        <v>29.17894325282368</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>24.11076785530122</v>
+        <v>27.80988661833152</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>23.83115505782974</v>
+        <v>31.58394709552266</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>19.50915167205028</v>
+        <v>21.1001527650281</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>30.08266716739679</v>
+        <v>31.7894304588229</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>26.62971632212212</v>
+        <v>36.91633058883968</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>26.41203423876946</v>
+        <v>40.69157024280054</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>24.50187349334989</v>
+        <v>30.20539128907552</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>34.26530360251218</v>
+        <v>37.45571938485642</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>34.79297480510689</v>
+        <v>41.2302144429587</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>35.73749628616582</v>
+        <v>30.7457605851177</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>32.18055616588687</v>
+        <v>41.43693298963962</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>43.01714097001663</v>
+        <v>46.56457673814333</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>44.07008067496324</v>
+        <v>50.34025100543835</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>50.77673473635986</v>
+        <v>39.85341244425598</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>36.26008726743411</v>
+        <v>40.72512882024017</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>37.06568555663074</v>
+        <v>44.49979598737542</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>38.77667252400664</v>
+        <v>34.0150895312492</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>32.46762620677758</v>
+        <v>44.70766650374395</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>44.76499848289538</v>
+        <v>49.83547106514135</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>45.97878077616062</v>
+        <v>53.61131745642689</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>53.64332549110984</v>
+        <v>43.12422624830032</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>32.8710394962279</v>
+        <v>34.30225523791643</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>33.61848581150045</v>
+        <v>38.07661327472994</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>32.42115396592467</v>
+        <v>27.59235353859282</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>32.08854382163277</v>
+        <v>38.28415547597189</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>41.33971363513704</v>
+        <v>43.4112331936139</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>42.19357490706883</v>
+        <v>47.18677043695374</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>48.17353180773505</v>
+        <v>36.70012598254954</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>31.33158356564905</v>
+        <v>21.24761001338556</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>34.33432178607499</v>
+        <v>26.36211783271853</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>34.8547005171049</v>
+        <v>30.13457804386696</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>36.96601585769383</v>
+        <v>19.65152938210787</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>30.48881407301474</v>
+        <v>25.63228441130224</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>32.18576201395139</v>
+        <v>30.88908013901591</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>41.94094369749311</v>
+        <v>36.00433147967311</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>43.03958221416951</v>
+        <v>39.77722617854766</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>48.7496725450778</v>
+        <v>29.29351811359203</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>31.98824656843383</v>
+        <v>35.27646322372169</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>31.27006591173499</v>
+        <v>34.15655414687643</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>38.01449199158922</v>
+        <v>39.27196639530194</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>38.45053780932952</v>
+        <v>43.04503316698884</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>44.27579407952789</v>
+        <v>32.56107255675232</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>31.81966611822565</v>
+        <v>38.54521293776389</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>31.5889679933941</v>
+        <v>27.73670326382598</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>39.58943652620503</v>
+        <v>32.85138882369898</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>40.20341374341836</v>
+        <v>36.62414652772947</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>46.36729604948246</v>
+        <v>26.14063255926198</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>31.87280195577687</v>
+        <v>32.12360251573426</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.92545862192577</v>
+        <v>30.7547883446967</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.90656313655089</v>
+        <v>34.52888996704888</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.49767282936557</v>
+        <v>24.04498456555922</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>30.90051368222227</v>
+        <v>34.73663742629748</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>33.66622207307225</v>
+        <v>39.86290678412973</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>33.77558567999531</v>
+        <v>43.63818752151286</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>36.50758137449862</v>
+        <v>33.1518975622983</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>39.01432347289088</v>
+        <v>40.3997107195774</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>40.05783083307347</v>
+        <v>44.17424689834098</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>43.65307318760053</v>
+        <v>33.68968201530316</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>32.34431175149106</v>
+        <v>44.38322948971205</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>43.85802524379395</v>
+        <v>49.5102424179135</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>45.06767664923279</v>
+        <v>53.28595774365994</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>52.01288401755772</v>
+        <v>42.79900822334008</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>39.22929497891568</v>
+        <v>43.66862126050415</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>40.0553935375423</v>
+        <v>47.44332953368945</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>44.60943525466118</v>
+        <v>36.95851208754453</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>32.389024670336</v>
+        <v>47.65346404361236</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>44.32054378848801</v>
+        <v>52.78063778938582</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>45.4413760050727</v>
+        <v>56.55652522445604</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>53.0224837477632</v>
+        <v>46.06932309211476</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>36.98939893092397</v>
+        <v>37.24628405225036</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>37.96465665758801</v>
+        <v>41.02068321090024</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>39.9721864394111</v>
+        <v>30.53631246529534</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>32.478805523084</v>
+        <v>41.23048941399924</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>44.44192094994741</v>
+        <v>46.35693637606727</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>45.53879365674715</v>
+        <v>50.13251467896561</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>53.12774362274747</v>
+        <v>39.64575928114465</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>32.46113404078054</v>
+        <v>24.58291141078422</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>36.06871374797641</v>
+        <v>29.69809882392832</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>37.31205718470524</v>
+        <v>33.47098054059342</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>36.87399388271673</v>
+        <v>22.98695217179915</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>30.49019745091558</v>
+        <v>28.97319454322423</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>32.37282556648208</v>
+        <v>34.22555602193285</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>40.91970507784274</v>
+        <v>39.34148701912005</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>42.22701741950318</v>
+        <v>43.11480326245265</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>46.1176954494188</v>
+        <v>32.63011542213707</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>31.92965796459476</v>
+        <v>38.61854817635327</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>31.3573035598007</v>
+        <v>37.49361643579147</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>38.52897786229798</v>
+        <v>42.60970834207927</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>38.91046101040642</v>
+        <v>46.38319667736363</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>45.09608004283729</v>
+        <v>35.89825625180043</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>31.69891395464236</v>
+        <v>41.88788448791473</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>31.56533778104801</v>
+        <v>31.07309419805819</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>38.82934874972048</v>
+        <v>36.18845934151904</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>39.21282507731529</v>
+        <v>39.96163858391191</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>45.01351146645927</v>
+        <v>29.47714483498845</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>31.87016711480619</v>
+        <v>35.46560254421644</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.94108179359517</v>
+        <v>34.09637863313725</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.92435427016166</v>
+        <v>37.87090193363457</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.59713765161822</v>
+        <v>27.38601656108614</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>30.94944543542046</v>
+        <v>38.07350213932699</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>34.03091401738672</v>
+        <v>43.20045210314294</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>34.19597491523291</v>
+        <v>46.97615456923523</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>37.07864873113979</v>
+        <v>36.4888846377184</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>39.69478543322079</v>
+        <v>43.74247589185569</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>40.68752420907841</v>
+        <v>47.51743378768623</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>45.08524696191475</v>
+        <v>37.03188886534923</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>32.28836923463103</v>
+        <v>47.72126915277551</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>43.48725404731344</v>
+        <v>52.84896275022078</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>44.64450440949397</v>
+        <v>56.62509984367847</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>51.55424744509607</v>
+        <v>46.13717028246464</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>38.28674011277851</v>
+        <v>47.01197303146165</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>39.11120765278486</v>
+        <v>50.7871030408117</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>43.07664441835777</v>
+        <v>40.30130551533335</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>32.46022715388349</v>
+        <v>50.99209038552993</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>44.68217117488966</v>
+        <v>56.11994480127447</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>45.90029605775806</v>
+        <v>59.89625402326311</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>53.47309352370101</v>
+        <v>49.40807181030681</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>37.4414809645008</v>
+        <v>40.58896422733739</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>38.45219173308634</v>
+        <v>44.36378509694947</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>40.93079117461526</v>
+        <v>33.8784343067037</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>32.3984090263421</v>
+        <v>44.5684441490684</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>44.42052732802828</v>
+        <v>49.69557170717718</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>45.57748552705019</v>
+        <v>53.47157177184096</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>53.20422916529209</v>
+        <v>42.98383632799045</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>30.96791956528406</v>
+        <v>23.15494684972038</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.96571193755268</v>
+        <v>28.26957145264675</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>30.28880304761578</v>
+        <v>32.04203351846269</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.86253528681279</v>
+        <v>21.55894389701638</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>30.64475736227722</v>
+        <v>27.54604389694686</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>32.3047759762857</v>
+        <v>32.79724528351454</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>41.57301422125795</v>
+        <v>37.91261343680122</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>42.76961460131017</v>
+        <v>41.68551000926124</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>47.47669933767186</v>
+        <v>31.2017609440822</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>31.91943192728953</v>
+        <v>37.19105122765239</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>31.32093485735934</v>
+        <v>36.06529224969557</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>38.37174206761694</v>
+        <v>41.18082130298177</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>38.72396302175561</v>
+        <v>44.9538899623804</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>45.01259548517636</v>
+        <v>34.46988831431719</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>31.84689697798545</v>
+        <v>40.46037401270581</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>31.55546556931149</v>
+        <v>29.64506155741316</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>39.19373598554954</v>
+        <v>34.75986387858148</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>39.56096920461236</v>
+        <v>38.53262346123876</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>45.70482470118476</v>
+        <v>28.04906846593946</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>31.89444177352609</v>
+        <v>34.03838369225338</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>31.73157669706232</v>
+        <v>32.66866456764291</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>31.49834825467391</v>
+        <v>36.44276813728419</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>32.67200851540332</v>
+        <v>25.95882148804941</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>30.99234062976292</v>
+        <v>36.6461590666209</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>35.2278821821526</v>
+        <v>41.77254547128319</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>35.14142792722373</v>
+        <v>45.54782816278254</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>39.42845853053142</v>
+        <v>35.06149704387639</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>39.7803264578917</v>
+        <v>42.31441549009918</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>40.47433908345285</v>
+        <v>46.08895363488995</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>45.34677688541178</v>
+        <v>35.60434746362733</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>32.45441410145798</v>
+        <v>46.29357971341091</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>45.0299326681217</v>
+        <v>51.4207097174438</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>45.99218717339426</v>
+        <v>55.1964270163117</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>54.1251831819363</v>
+        <v>44.70943629574998</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>39.31078289346071</v>
+        <v>45.58389909414717</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>39.98773442216424</v>
+        <v>49.35860934770443</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>44.9524637224535</v>
+        <v>38.87375057519984</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>32.57961739342217</v>
+        <v>49.56438736032538</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>45.85137502716314</v>
+        <v>54.6916781735826</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>46.85237352340013</v>
+        <v>58.46756759626982</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>55.71006537397172</v>
+        <v>47.98032422571242</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>38.18632253370153</v>
+        <v>39.1611819441494</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>38.98086465508749</v>
+        <v>42.9355830739492</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>42.43832528517888</v>
+        <v>32.451171013026</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>32.59550250063955</v>
+        <v>43.14103276565226</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>46.49031882827492</v>
+        <v>48.2675967521547</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>47.48577953027727</v>
+        <v>52.04317703341911</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>56.75798695721855</v>
+        <v>41.55638040829439</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>30.51003378748992</v>
+        <v>20.51416740067845</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.68640433661535</v>
+        <v>25.62900804588441</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.80804416925343</v>
+        <v>29.40176072562241</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>27.810729730557</v>
+        <v>18.91790298271787</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>30.23502539032597</v>
+        <v>24.90157679234818</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>32.20280971378907</v>
+        <v>30.15663000002127</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>42.13910565750575</v>
+        <v>35.27221419940685</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>43.29559726179988</v>
+        <v>39.04540140036812</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>49.08648245063569</v>
+        <v>28.56088419606084</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>31.97079322828147</v>
+        <v>34.54674826068191</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>31.18554081863753</v>
+        <v>33.42446528270722</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>37.56571422345016</v>
+        <v>38.54021039571006</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>37.96915656124449</v>
+        <v>42.31356968116069</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>43.52816798978448</v>
+        <v>31.82879990783653</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>31.88983645123854</v>
+        <v>37.81585933337516</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>31.22191409109471</v>
+        <v>27.00389317368371</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>36.57244949944364</v>
+        <v>32.11891156415919</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>36.99476219488604</v>
+        <v>35.89196175629337</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>41.6269722398393</v>
+        <v>25.4076386634311</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>31.44276081398426</v>
+        <v>31.3935275750286</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>28.40172944862297</v>
+        <v>30.02441396471278</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.24780338074133</v>
+        <v>33.79880817791224</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>27.10377157851797</v>
+        <v>23.31409358523041</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>30.60937915478122</v>
+        <v>34.00441801643029</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>31.43368979441246</v>
+        <v>39.13102092441812</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>31.38703224674235</v>
+        <v>42.90659429629517</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>32.4873773938462</v>
+        <v>32.41949510516127</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>39.13345518073119</v>
+        <v>39.6703290286253</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>40.1740931286347</v>
+        <v>43.44515783142634</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>43.72235742397648</v>
+        <v>32.95978369893311</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>32.32239927198488</v>
+        <v>43.6520028437962</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>43.89959614966763</v>
+        <v>48.77934935548495</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>45.07706979473548</v>
+        <v>52.5553573491722</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>52.07048780412835</v>
+        <v>42.06759853815021</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>38.86736805890615</v>
+        <v>42.93960093416689</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>39.80212982405597</v>
+        <v>46.71460184306369</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>43.5750495931801</v>
+        <v>36.22897512367064</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>32.44310902785782</v>
+        <v>46.92259882904256</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>44.5703337200477</v>
+        <v>52.05010616382964</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>45.77057862109938</v>
+        <v>55.82628627876642</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>53.36696701970622</v>
+        <v>45.33827483207511</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>33.48459866673893</v>
+        <v>36.51654235580708</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>33.81867087633641</v>
+        <v>40.29123412440703</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>34.64388023197794</v>
+        <v>29.80605414445671</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>32.44423043627073</v>
+        <v>40.49890280258097</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>43.6532244763704</v>
+        <v>45.6256833197537</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>44.71306213898578</v>
+        <v>49.40155427682106</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>51.48225053090502</v>
+        <v>38.91398960361954</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>30.04938925597658</v>
+        <v>13.95912869205637</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>25.51299769478723</v>
+        <v>19.07353726471826</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>25.30993680845278</v>
+        <v>22.84557385686918</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>21.93025959525738</v>
+        <v>12.36347452307684</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>30.0102589692683</v>
+        <v>18.35346658406894</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>30.40199958950159</v>
+        <v>23.60072610984134</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.28459773395662</v>
+        <v>28.7158781914506</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.26724119087059</v>
+        <v>32.48834926498438</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.52980443024514</v>
+        <v>22.00559052942782</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>31.73180319699212</v>
+        <v>27.99777288881188</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>30.26738524628447</v>
+        <v>26.86835401179946</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.01347427176371</v>
+        <v>31.98366698935212</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>27.90441421549043</v>
+        <v>35.75631013585786</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>26.52572224242773</v>
+        <v>25.27329884379271</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>31.44177608962677</v>
+        <v>31.26667654761963</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>30.29287349704605</v>
+        <v>20.44845289712493</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>27.72519522048694</v>
+        <v>25.56303918612577</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>27.68284843327129</v>
+        <v>29.33537327017126</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>25.77625402596051</v>
+        <v>18.8528086101814</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>31.50927546418899</v>
+        <v>24.84501576669465</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>25.85954329522972</v>
+        <v>23.47587077052339</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>25.56860358062675</v>
+        <v>27.24954883737263</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>22.58980888145156</v>
+        <v>16.76659241625675</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>30.16709771858062</v>
+        <v>27.45486163971981</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>26.28042536699313</v>
+        <v>32.58103128039346</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>26.14289384445112</v>
+        <v>36.35588842052738</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>23.17065503372798</v>
+        <v>25.8705475696458</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>37.86756930550721</v>
+        <v>33.12092062590892</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>38.72224576874841</v>
+        <v>36.89503324251228</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>42.08896307167808</v>
+        <v>26.41141734133868</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>32.33282614653196</v>
+        <v>37.10158114890606</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>43.63774416381969</v>
+        <v>42.22849434785377</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>44.82849334498302</v>
+        <v>46.00378607021941</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>51.91439511187055</v>
+        <v>35.51778565928458</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>36.33451182750848</v>
+        <v>36.38998509941547</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>36.89434130162587</v>
+        <v>40.16426981105468</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>40.09454721839925</v>
+        <v>29.68040133517633</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>32.40514210620304</v>
+        <v>40.37196961254773</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>43.11386213204109</v>
+        <v>45.49904361690614</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>44.15344381411445</v>
+        <v>49.2745074490785</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>50.82897097248045</v>
+        <v>38.78825441475902</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>35.65458084639352</v>
+        <v>29.96759753258215</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>36.269287809985</v>
+        <v>33.74157313449831</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>38.58828448856674</v>
+        <v>23.25815134954218</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>32.08600163459271</v>
+        <v>33.94894463839915</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>41.10978950936907</v>
+        <v>39.07529185906577</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>41.7340474372287</v>
+        <v>42.85044656400595</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>47.99423350178212</v>
+        <v>32.36464025446782</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>29.91967923077468</v>
+        <v>19.96858883399097</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>24.3615425856077</v>
+        <v>25.08338260366753</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>24.06191395238448</v>
+        <v>28.85576359505848</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>20.02371267073011</v>
+        <v>18.37290242073385</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>29.81601264070947</v>
+        <v>24.35940615330827</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>30.20609935085909</v>
+        <v>29.61084334318963</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>30.73645492537641</v>
+        <v>34.72638066165251</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>30.41068336238462</v>
+        <v>38.49919615795994</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>31.80076356187272</v>
+        <v>28.01567554258833</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>31.64520185571218</v>
+        <v>34.00436956341019</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>31.5915178918045</v>
+        <v>32.87890031124545</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>37.36625947807501</v>
+        <v>37.99459852680462</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>38.13185373906634</v>
+        <v>41.76758610970415</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>41.79161349439899</v>
+        <v>31.28381291117416</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>31.53030179451804</v>
+        <v>37.2737023401674</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>31.58160197210486</v>
+        <v>26.45870615652649</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>35.42858919888412</v>
+        <v>31.57367764044631</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>36.25832696508796</v>
+        <v>35.3463561476263</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>37.37524791313373</v>
+        <v>24.86302960001155</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>31.61974741111494</v>
+        <v>30.85174854316626</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>26.4942848789791</v>
+        <v>29.48219595284565</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>25.98845974578961</v>
+        <v>33.25621843618597</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>24.60231371686366</v>
+        <v>22.77250022829407</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>29.51600010766227</v>
+        <v>33.45971233647236</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>24.13798054694843</v>
+        <v>38.58626785901396</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>23.50681101825927</v>
+        <v>42.36146946659045</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>20.49978685101428</v>
+        <v>31.87536678325859</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>36.89555521309772</v>
+        <v>39.12790295302528</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>37.56421111728925</v>
+        <v>42.90236001006105</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>40.46307138145075</v>
+        <v>32.41798228267334</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>32.32745632981972</v>
+        <v>43.10708905943812</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>42.4795948061314</v>
+        <v>48.23438817997788</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>43.43878367818179</v>
+        <v>52.01002439335792</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>49.50624924149491</v>
+        <v>41.52326211072221</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>37.33329855915643</v>
+        <v>42.39739654633792</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>37.9847666872592</v>
+        <v>46.17202571161675</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>41.90320155447066</v>
+        <v>35.68739538297228</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>32.31650727605194</v>
+        <v>46.3779066959259</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>42.83655902091636</v>
+        <v>51.50536662283656</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>43.76783591350627</v>
+        <v>55.28117495975101</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>50.57107263388568</v>
+        <v>44.79416002727277</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>36.64060213490705</v>
+        <v>35.9747159199913</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>37.37114378798439</v>
+        <v>39.74903596244059</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>40.06339960228467</v>
+        <v>29.264852343452</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>31.75497228533008</v>
+        <v>39.95458862733773</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>39.4841823805053</v>
+        <v>45.08132172773065</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>39.96448165437833</v>
+        <v>48.85682092416545</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>45.8654015583647</v>
+        <v>38.37025273517037</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>32.23806501084973</v>
+        <v>25.00273720517163</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>35.40497906404524</v>
+        <v>30.11727557087778</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>36.51435233196342</v>
+        <v>33.88978272285516</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>36.22173552793053</v>
+        <v>23.40668913447036</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>30.96976109000694</v>
+        <v>29.39068609137525</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>32.3195456457893</v>
+        <v>34.6443206982936</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>41.27399887034451</v>
+        <v>39.759602593652</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>42.48175911558598</v>
+        <v>43.53254423262041</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>46.99030523858376</v>
+        <v>33.04879123884615</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>31.7628303368937</v>
+        <v>39.03497830956536</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>31.52444705065965</v>
+        <v>37.91192676877637</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>38.53281272252311</v>
+        <v>43.02736956311293</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>38.8523322433981</v>
+        <v>46.80048327600144</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>44.73390591058433</v>
+        <v>36.31647772337493</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>31.65290169804875</v>
+        <v>42.30386015289133</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>31.65108316493827</v>
+        <v>31.49206926180893</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>39.09508068151674</v>
+        <v>36.60678534733637</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>39.47180664624718</v>
+        <v>40.37958999433698</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>45.29874735272423</v>
+        <v>29.89603107286945</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>31.76197035143618</v>
+        <v>35.88224313690324</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>32.56087933389891</v>
+        <v>34.51322056675389</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>32.8829960734427</v>
+        <v>38.28736918131898</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>33.44198944142602</v>
+        <v>27.80341870766262</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>30.96097879797754</v>
+        <v>38.49164390341406</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>34.14316849258775</v>
+        <v>43.61794387324818</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>34.30522076083391</v>
+        <v>47.39327155699067</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>37.31397191162618</v>
+        <v>36.90693667532508</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>38.67657029461984</v>
+        <v>44.15825635660639</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>39.58142664259237</v>
+        <v>47.93283952646942</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>43.51451380571277</v>
+        <v>37.44822956922116</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>32.4202599749385</v>
+        <v>48.1383493687967</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>43.77319481566318</v>
+        <v>53.26539291769069</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>45.05486678161604</v>
+        <v>57.04115518911391</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>51.80489091282922</v>
+        <v>46.55416074400176</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>38.34298183161268</v>
+        <v>47.42729901781951</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>39.12493837531852</v>
+        <v>51.20205428356695</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>43.55362279828627</v>
+        <v>40.71719174942433</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>32.37009105224259</v>
+        <v>51.40871605912372</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>44.08548326441094</v>
+        <v>56.5359204164551</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>45.2818987800798</v>
+        <v>60.31185479869276</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>52.81339619271712</v>
+        <v>49.82460772795815</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>38.10197385107296</v>
+        <v>41.00495519536065</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>39.01176609084418</v>
+        <v>44.77940134809018</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>42.47517999919332</v>
+        <v>34.2949855037628</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>32.10317383276719</v>
+        <v>44.98573483727483</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>42.35228985831348</v>
+        <v>50.11221239082732</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>43.30605286246126</v>
+        <v>53.88783764249973</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>50.27849624735806</v>
+        <v>43.40103729539504</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>30.31948822678865</v>
+        <v>21.14378966710985</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>27.85348830742254</v>
+        <v>26.25861085010257</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>27.79359320118061</v>
+        <v>30.0313692719522</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>26.15353740757725</v>
+        <v>19.54752574987771</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>30.67941288599746</v>
+        <v>25.53143701095957</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>32.23453605238583</v>
+        <v>30.78622942778401</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>41.5859482745869</v>
+        <v>35.90179415702909</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>42.75407133706268</v>
+        <v>39.67498709673504</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>47.79556933387038</v>
+        <v>29.19048411588341</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>31.8579148877124</v>
+        <v>35.17658561179582</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>31.23726946659161</v>
+        <v>34.0540713583361</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>37.12049499411849</v>
+        <v>39.16979699760503</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>37.62265183803229</v>
+        <v>42.94316202060935</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>42.55543649760669</v>
+        <v>32.45840647105587</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>31.67089480580441</v>
+        <v>38.44570332351537</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>31.07038117495487</v>
+        <v>27.63351815783262</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>35.58153476585129</v>
+        <v>32.7485170807866</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>35.95697333738101</v>
+        <v>36.52157301266908</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>39.90782173711233</v>
+        <v>26.037264141756</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>31.49754325911684</v>
+        <v>32.02339049640688</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>30.40353965159424</v>
+        <v>30.6542546658323</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>30.54854113437794</v>
+        <v>34.42865461038656</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>30.14663304992981</v>
+        <v>23.94395423762609</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>30.56177929817598</v>
+        <v>34.6332520624639</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>31.02194436439024</v>
+        <v>39.75983541540432</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>30.93892174971722</v>
+        <v>43.53541449531582</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>31.56970840387177</v>
+        <v>33.04832956968886</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>38.81828626791314</v>
+        <v>40.30014685390137</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>39.78547564166355</v>
+        <v>44.07498138509885</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>43.3742797315432</v>
+        <v>33.58962147560845</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>32.44056462172735</v>
+        <v>44.28081400181992</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>43.88199581654155</v>
+        <v>49.40814094975229</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>45.1365884088415</v>
+        <v>53.18415464845378</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>51.90308779108503</v>
+        <v>42.69641010630761</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>38.59074207729834</v>
+        <v>43.56942539448659</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>39.3995732006459</v>
+        <v>47.34443203065342</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>43.92927124078044</v>
+        <v>36.85881953431539</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>32.44247484282308</v>
+        <v>47.55141660218925</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>44.03752894288384</v>
+        <v>52.67890436934744</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>45.15601277309332</v>
+        <v>56.45509018824549</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>52.46161069206168</v>
+        <v>45.96709301056143</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>36.28531830726244</v>
+        <v>37.14638575370446</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>37.01187426985864</v>
+        <v>40.9210832517486</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>39.64547200741626</v>
+        <v>30.43591749292961</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>31.88593508399085</v>
+        <v>41.12773950421632</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>40.80470632624633</v>
+        <v>46.25450046035206</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>41.46329109272007</v>
+        <v>50.03037712344252</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>47.80258799430649</v>
+        <v>39.54282671705306</v>
       </c>
     </row>
   </sheetData>
